--- a/Daisy-xls/ResearchPages/research-ovarian-cancer.xlsx
+++ b/Daisy-xls/ResearchPages/research-ovarian-cancer.xlsx
@@ -156,7 +156,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,18 +165,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -199,6 +193,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -263,20 +272,20 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -584,7 +593,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -593,7 +602,7 @@
     <col min="2" max="2" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="44.5703125" style="6" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
@@ -620,7 +629,9 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="24">
+        <v>488732</v>
+      </c>
       <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
@@ -637,7 +648,9 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="24">
+        <v>822011</v>
+      </c>
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
@@ -653,7 +666,9 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="24">
+        <v>778109</v>
+      </c>
       <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
@@ -669,7 +684,9 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="24">
+        <v>776849</v>
+      </c>
       <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
@@ -685,7 +702,9 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="24">
+        <v>702831</v>
+      </c>
       <c r="C6" s="16" t="s">
         <v>7</v>
       </c>
@@ -701,7 +720,9 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="24">
+        <v>699643</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
@@ -711,7 +732,7 @@
       <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>41670</v>
       </c>
     </row>
@@ -719,7 +740,9 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="24">
+        <v>430531</v>
+      </c>
       <c r="C8" s="16" t="s">
         <v>17</v>
       </c>
@@ -735,7 +758,9 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="24">
+        <v>87570</v>
+      </c>
       <c r="C9" s="11" t="s">
         <v>4</v>
       </c>
@@ -753,8 +778,10 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="24">
+        <v>171058</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -769,7 +796,9 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="24">
+        <v>99865</v>
+      </c>
       <c r="C11" s="11" t="s">
         <v>3</v>
       </c>
@@ -787,8 +816,10 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="24">
+        <v>15715</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="11" t="s">
